--- a/out/private_topics_notlonely.xlsx
+++ b/out/private_topics_notlonely.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>X1</t>
   </si>
@@ -50,91 +50,124 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>angst</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>wichtig</t>
+  </si>
+  <si>
+    <t>seh</t>
+  </si>
+  <si>
+    <t>sorg</t>
+  </si>
+  <si>
+    <t>homeoffic</t>
+  </si>
+  <si>
+    <t>woch</t>
+  </si>
+  <si>
+    <t>miteinand</t>
+  </si>
+  <si>
+    <t>mutt</t>
+  </si>
+  <si>
+    <t>haus</t>
+  </si>
+  <si>
+    <t>schul</t>
+  </si>
+  <si>
+    <t>aktuell</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>fallt</t>
+  </si>
+  <si>
+    <t>taglich</t>
+  </si>
+  <si>
+    <t>treff</t>
+  </si>
+  <si>
+    <t>einkauf</t>
+  </si>
+  <si>
+    <t>schwer</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>massnahm</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>schon</t>
+  </si>
+  <si>
+    <t>allgemein</t>
+  </si>
+  <si>
+    <t>gefuhl</t>
+  </si>
+  <si>
+    <t>eltern</t>
+  </si>
+  <si>
+    <t>empfind</t>
+  </si>
+  <si>
+    <t>raus</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>seit</t>
+  </si>
+  <si>
+    <t>allein</t>
+  </si>
+  <si>
     <t>kris</t>
   </si>
   <si>
-    <t>angst</t>
+    <t>somit</t>
   </si>
   <si>
     <t>fehlt</t>
   </si>
   <si>
-    <t>sorg</t>
-  </si>
-  <si>
-    <t>haus</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>wichtig</t>
-  </si>
-  <si>
-    <t>allein</t>
-  </si>
-  <si>
-    <t>eltern</t>
-  </si>
-  <si>
-    <t>bleib</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>positiv</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>seh</t>
-  </si>
-  <si>
-    <t>empfind</t>
-  </si>
-  <si>
-    <t>miteinand</t>
-  </si>
-  <si>
-    <t>treff</t>
+    <t>ungewiss</t>
   </si>
   <si>
     <t>besuch</t>
   </si>
   <si>
-    <t>aktuell</t>
-  </si>
-  <si>
-    <t>woch</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>schul</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>telefon</t>
-  </si>
-  <si>
-    <t>lag</t>
-  </si>
-  <si>
-    <t>mutt</t>
-  </si>
-  <si>
-    <t>taglich</t>
-  </si>
-  <si>
-    <t>schwierig</t>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>eingeschrankt</t>
   </si>
 </sst>
 </file>
@@ -214,25 +247,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -240,25 +273,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -266,25 +299,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -292,25 +325,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -318,25 +351,103 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
